--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaddi\Documents\Proj_UiPath\MoviesMicroservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1939A916-7195-4303-9F5F-2352CCBE7935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAEB241-39F6-467B-BB40-CC03359403CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cast" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>movieid</t>
+  </si>
+  <si>
+    <t>38,41</t>
+  </si>
+  <si>
+    <t>39,47,41</t>
+  </si>
+  <si>
+    <t>40,36</t>
   </si>
 </sst>
 </file>
@@ -459,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -562,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21567023-D832-4DA2-8623-7484CE49B717}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,8 +612,8 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -620,8 +629,8 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,8 +646,8 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4">
-        <v>3</v>
+      <c r="E4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -655,7 +664,7 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -672,7 +681,7 @@
         <v>32</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -689,7 +698,7 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -706,7 +715,7 @@
         <v>32</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -723,7 +732,7 @@
         <v>32</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -740,7 +749,7 @@
         <v>32</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -757,7 +766,7 @@
         <v>32</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
